--- a/Annotations/New/Elantris.xlsx
+++ b/Annotations/New/Elantris.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="12852" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="12852"/>
   </bookViews>
   <sheets>
     <sheet name="elantris" sheetId="1" r:id="rId1"/>
@@ -2055,15 +2055,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P367"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G370" sqref="G370"/>
+      <selection pane="bottomLeft" activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="49.33203125" style="2" customWidth="1"/>
@@ -2129,7 +2129,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.32927445489139928</v>
+        <v>0.53091358893085072</v>
       </c>
       <c r="B2" s="2">
         <v>214</v>
@@ -2156,7 +2156,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39939602580156353</v>
+        <v>0.95583865873315788</v>
       </c>
       <c r="B3" s="2">
         <v>212</v>
@@ -2180,7 +2180,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13318752499277853</v>
+        <v>0.88710081398619445</v>
       </c>
       <c r="B4" s="2">
         <v>363</v>
@@ -2201,7 +2201,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37316515334934397</v>
+        <v>0.50477148793249682</v>
       </c>
       <c r="B5" s="2">
         <v>57</v>
@@ -2225,7 +2225,7 @@
     <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26530006067725187</v>
+        <v>6.4493755095968108E-2</v>
       </c>
       <c r="B6" s="2">
         <v>152</v>
@@ -2249,7 +2249,7 @@
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67373663022749342</v>
+        <v>0.9964348580558704</v>
       </c>
       <c r="B7" s="2">
         <v>132</v>
@@ -2270,7 +2270,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3316700900214834</v>
+        <v>0.91483494644269814</v>
       </c>
       <c r="B8" s="2">
         <v>310</v>
@@ -2294,7 +2294,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66914665844647148</v>
+        <v>0.64256981348114328</v>
       </c>
       <c r="B9" s="2">
         <v>120</v>
@@ -2315,7 +2315,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16563350449209258</v>
+        <v>0.46603349799775795</v>
       </c>
       <c r="B10" s="2">
         <v>47</v>
@@ -2339,7 +2339,7 @@
     <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9325526091739125E-3</v>
+        <v>0.59133321562957508</v>
       </c>
       <c r="B11" s="2">
         <v>31</v>
@@ -2363,7 +2363,7 @@
     <row r="12" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48742150703152753</v>
+        <v>0.30310627985645477</v>
       </c>
       <c r="B12" s="2">
         <v>78</v>
@@ -2384,7 +2384,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48039405200538543</v>
+        <v>0.57372607561588207</v>
       </c>
       <c r="B13" s="2">
         <v>154</v>
@@ -2405,7 +2405,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25053846416663106</v>
+        <v>0.65067437211789236</v>
       </c>
       <c r="B14" s="2">
         <v>141</v>
@@ -2429,7 +2429,7 @@
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29264763697838381</v>
+        <v>0.21736559000347899</v>
       </c>
       <c r="B15" s="2">
         <v>262</v>
@@ -2450,7 +2450,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68325985036325387</v>
+        <v>0.38249222129136884</v>
       </c>
       <c r="B16" s="2">
         <v>200</v>
@@ -2471,7 +2471,7 @@
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81330501200042415</v>
+        <v>0.46741747319769256</v>
       </c>
       <c r="B17" s="2">
         <v>279</v>
@@ -2495,7 +2495,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61555629262765177</v>
+        <v>0.43136023824581404</v>
       </c>
       <c r="B18" s="2">
         <v>288</v>
@@ -2519,7 +2519,7 @@
     <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41026963373706504</v>
+        <v>0.68538232439700264</v>
       </c>
       <c r="B19" s="2">
         <v>170</v>
@@ -2543,7 +2543,7 @@
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51676040216349595</v>
+        <v>0.90064010585210219</v>
       </c>
       <c r="B20" s="2">
         <v>40</v>
@@ -2564,7 +2564,7 @@
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.86162760587181E-2</v>
+        <v>0.90775664041843285</v>
       </c>
       <c r="B21" s="2">
         <v>138</v>
@@ -2588,7 +2588,7 @@
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15891649250287554</v>
+        <v>0.97028996696994141</v>
       </c>
       <c r="B22" s="2">
         <v>375</v>
@@ -2612,7 +2612,7 @@
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11564301522978937</v>
+        <v>0.95665965295653244</v>
       </c>
       <c r="B23" s="2">
         <v>318</v>
@@ -2639,7 +2639,7 @@
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8224546383319788E-3</v>
+        <v>0.4074426656769774</v>
       </c>
       <c r="B24" s="2">
         <v>136</v>
@@ -2663,7 +2663,7 @@
     <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94287375411757923</v>
+        <v>0.422875422368022</v>
       </c>
       <c r="B25" s="2">
         <v>297</v>
@@ -2687,7 +2687,7 @@
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80573622455388472</v>
+        <v>0.28332823347220248</v>
       </c>
       <c r="B26" s="2">
         <v>236</v>
@@ -2708,7 +2708,7 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1590095117344964</v>
+        <v>0.43129487924123411</v>
       </c>
       <c r="B27" s="2">
         <v>372</v>
@@ -2735,7 +2735,7 @@
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42240470108489026</v>
+        <v>0.93601783826673168</v>
       </c>
       <c r="B28" s="2">
         <v>366</v>
@@ -2759,7 +2759,7 @@
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72578510818969189</v>
+        <v>0.21320583868090748</v>
       </c>
       <c r="B29" s="2">
         <v>117</v>
@@ -2783,7 +2783,7 @@
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63812727207183928</v>
+        <v>0.29992859868896904</v>
       </c>
       <c r="B30" s="2">
         <v>182</v>
@@ -2807,7 +2807,7 @@
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12248512667286782</v>
+        <v>0.82896578785978337</v>
       </c>
       <c r="B31" s="2">
         <v>111</v>
@@ -2831,7 +2831,7 @@
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0175489558664834E-3</v>
+        <v>0.54924702602115505</v>
       </c>
       <c r="B32" s="2">
         <v>70</v>
@@ -2852,7 +2852,7 @@
     <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94597129822519321</v>
+        <v>0.40312446668732216</v>
       </c>
       <c r="B33" s="2">
         <v>302</v>
@@ -2876,7 +2876,7 @@
     <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77907409418248363</v>
+        <v>0.52508594678366149</v>
       </c>
       <c r="B34" s="2">
         <v>344</v>
@@ -2903,7 +2903,7 @@
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96423915700925655</v>
+        <v>0.75155611724762272</v>
       </c>
       <c r="B35" s="2">
         <v>202</v>
@@ -2927,7 +2927,7 @@
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0392290130641393E-2</v>
+        <v>7.8335093389999222E-2</v>
       </c>
       <c r="B36" s="2">
         <v>71</v>
@@ -2951,7 +2951,7 @@
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1742812229873526</v>
+        <v>0.1951564575151602</v>
       </c>
       <c r="B37" s="2">
         <v>245</v>
@@ -2975,7 +2975,7 @@
     <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38043516707226255</v>
+        <v>0.15317331566198367</v>
       </c>
       <c r="B38" s="2">
         <v>334</v>
@@ -2999,7 +2999,7 @@
     <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51762534597823651</v>
+        <v>0.13294728713763282</v>
       </c>
       <c r="B39" s="2">
         <v>21</v>
@@ -3023,7 +3023,7 @@
     <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47282155270508885</v>
+        <v>0.71088955273518084</v>
       </c>
       <c r="B40" s="2">
         <v>294</v>
@@ -3053,7 +3053,7 @@
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73702667506250508</v>
+        <v>0.44214773844336819</v>
       </c>
       <c r="B41" s="2">
         <v>240</v>
@@ -3077,7 +3077,7 @@
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49839102907509991</v>
+        <v>0.86232723288721225</v>
       </c>
       <c r="B42" s="2">
         <v>224</v>
@@ -3101,7 +3101,7 @@
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51858892206689533</v>
+        <v>0.93444838231430338</v>
       </c>
       <c r="B43" s="2">
         <v>135</v>
@@ -3125,7 +3125,7 @@
     <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89528793942446594</v>
+        <v>0.47060061895727268</v>
       </c>
       <c r="B44" s="2">
         <v>242</v>
@@ -3149,7 +3149,7 @@
     <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71918927827157564</v>
+        <v>0.93401478566547835</v>
       </c>
       <c r="B45" s="2">
         <v>165</v>
@@ -3173,7 +3173,7 @@
     <row r="46" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55629031641409232</v>
+        <v>0.55051852823611103</v>
       </c>
       <c r="B46" s="2">
         <v>28</v>
@@ -3194,7 +3194,7 @@
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44121795386480367</v>
+        <v>0.6375805456442355</v>
       </c>
       <c r="B47" s="2">
         <v>185</v>
@@ -3218,7 +3218,7 @@
     <row r="48" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82095799744261555</v>
+        <v>2.8980258876163734E-2</v>
       </c>
       <c r="B48" s="2">
         <v>249</v>
@@ -3239,7 +3239,7 @@
     <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49549877292830302</v>
+        <v>0.19645137537028556</v>
       </c>
       <c r="B49" s="2">
         <v>116</v>
@@ -3263,7 +3263,7 @@
     <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52475400534715755</v>
+        <v>0.29687680734220911</v>
       </c>
       <c r="B50" s="2">
         <v>160</v>
@@ -3287,7 +3287,7 @@
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77406210654599283</v>
+        <v>0.67400277019462729</v>
       </c>
       <c r="B51" s="2">
         <v>227</v>
@@ -3311,7 +3311,7 @@
     <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38330002791522988</v>
+        <v>0.18984959824468095</v>
       </c>
       <c r="B52" s="2">
         <v>143</v>
@@ -3332,7 +3332,7 @@
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57575952962826094</v>
+        <v>0.42151914823687231</v>
       </c>
       <c r="B53" s="2">
         <v>101</v>
@@ -3353,7 +3353,7 @@
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77114464711304487</v>
+        <v>0.31798718294811967</v>
       </c>
       <c r="B54" s="2">
         <v>113</v>
@@ -3377,7 +3377,7 @@
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53634821486946016</v>
+        <v>0.45679539412010683</v>
       </c>
       <c r="B55" s="2">
         <v>258</v>
@@ -3398,7 +3398,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20241007999648075</v>
+        <v>0.3173952010582437</v>
       </c>
       <c r="B56" s="2">
         <v>197</v>
@@ -3422,7 +3422,7 @@
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88548243042509323</v>
+        <v>0.24300244662412529</v>
       </c>
       <c r="B57" s="2">
         <v>309</v>
@@ -3449,7 +3449,7 @@
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75078851696287319</v>
+        <v>0.7872918534007618</v>
       </c>
       <c r="B58" s="2">
         <v>164</v>
@@ -3473,7 +3473,7 @@
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73749713713602993</v>
+        <v>0.1151780856452328</v>
       </c>
       <c r="B59" s="2">
         <v>336</v>
@@ -3494,7 +3494,7 @@
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34702877124991627</v>
+        <v>5.3384333563766262E-3</v>
       </c>
       <c r="B60" s="2">
         <v>55</v>
@@ -3518,7 +3518,7 @@
     <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48349980923954849</v>
+        <v>0.70561766400074677</v>
       </c>
       <c r="B61" s="2">
         <v>314</v>
@@ -3542,7 +3542,7 @@
     <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44136608464425986</v>
+        <v>0.89740065412514014</v>
       </c>
       <c r="B62" s="2">
         <v>66</v>
@@ -3566,7 +3566,7 @@
     <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5810142384829766E-2</v>
+        <v>0.1421207823781947</v>
       </c>
       <c r="B63" s="2">
         <v>26</v>
@@ -3590,7 +3590,7 @@
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29937337550185317</v>
+        <v>0.12337730935115032</v>
       </c>
       <c r="B64" s="2">
         <v>235</v>
@@ -3611,7 +3611,7 @@
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48145185331881046</v>
+        <v>0.24176028249143355</v>
       </c>
       <c r="B65" s="2">
         <v>290</v>
@@ -3632,7 +3632,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.55771794917135709</v>
+        <v>0.98203951521185096</v>
       </c>
       <c r="B66" s="2">
         <v>193</v>
@@ -3659,7 +3659,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24674777060561925</v>
+        <v>0.17000253364729567</v>
       </c>
       <c r="B67" s="2">
         <v>217</v>
@@ -3680,7 +3680,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36640880367245665</v>
+        <v>0.6921662935308206</v>
       </c>
       <c r="B68" s="2">
         <v>332</v>
@@ -3707,7 +3707,7 @@
     <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10986223992260347</v>
+        <v>0.97712042784813935</v>
       </c>
       <c r="B69" s="2">
         <v>121</v>
@@ -3728,7 +3728,7 @@
     <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57756775054899834</v>
+        <v>0.70113693954928524</v>
       </c>
       <c r="B70" s="2">
         <v>123</v>
@@ -3752,7 +3752,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91960869547286495</v>
+        <v>0.26782500812780596</v>
       </c>
       <c r="B71" s="2">
         <v>33</v>
@@ -3776,7 +3776,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79813232782460153</v>
+        <v>0.94182987158936082</v>
       </c>
       <c r="B72" s="2">
         <v>353</v>
@@ -3800,7 +3800,7 @@
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96061721318996152</v>
+        <v>0.49800456053569442</v>
       </c>
       <c r="B73" s="2">
         <v>239</v>
@@ -3827,7 +3827,7 @@
     <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91252998339363178</v>
+        <v>0.14909118630952767</v>
       </c>
       <c r="B74" s="2">
         <v>128</v>
@@ -3851,7 +3851,7 @@
     <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61054284140385806</v>
+        <v>0.14809575619347515</v>
       </c>
       <c r="B75" s="2">
         <v>174</v>
@@ -3872,7 +3872,7 @@
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5442676999425187E-2</v>
+        <v>0.62499663222735269</v>
       </c>
       <c r="B76" s="2">
         <v>251</v>
@@ -3896,7 +3896,7 @@
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46731991876309575</v>
+        <v>0.28573404529964841</v>
       </c>
       <c r="B77" s="2">
         <v>343</v>
@@ -3923,7 +3923,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46684891057586064</v>
+        <v>7.0057437701390168E-2</v>
       </c>
       <c r="B78" s="2">
         <v>253</v>
@@ -3950,7 +3950,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7940911032935497</v>
+        <v>0.53798554234383722</v>
       </c>
       <c r="B79" s="2">
         <v>250</v>
@@ -3974,7 +3974,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81976038488844216</v>
+        <v>0.54909220305703133</v>
       </c>
       <c r="B80" s="2">
         <v>378</v>
@@ -3998,7 +3998,7 @@
     <row r="81" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54512393507278623</v>
+        <v>0.93146713937356851</v>
       </c>
       <c r="B81" s="2">
         <v>109</v>
@@ -4022,7 +4022,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97712492444716248</v>
+        <v>0.42560260860435473</v>
       </c>
       <c r="B82" s="2">
         <v>271</v>
@@ -4049,7 +4049,7 @@
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17839060500290826</v>
+        <v>0.76029521352328322</v>
       </c>
       <c r="B83" s="2">
         <v>133</v>
@@ -4073,7 +4073,7 @@
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62000993713607733</v>
+        <v>0.26000428448190349</v>
       </c>
       <c r="B84" s="2">
         <v>37</v>
@@ -4097,7 +4097,7 @@
     <row r="85" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3852144727957203E-3</v>
+        <v>0.34537781781416377</v>
       </c>
       <c r="B85" s="2">
         <v>77</v>
@@ -4118,7 +4118,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46419789635479725</v>
+        <v>7.1457084653106073E-2</v>
       </c>
       <c r="B86" s="2">
         <v>252</v>
@@ -4142,7 +4142,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45731233905672009</v>
+        <v>0.90794612709174694</v>
       </c>
       <c r="B87" s="2">
         <v>291</v>
@@ -4166,7 +4166,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89534569445918288</v>
+        <v>0.70661436034604919</v>
       </c>
       <c r="B88" s="2">
         <v>367</v>
@@ -4193,7 +4193,7 @@
     <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96391902245512384</v>
+        <v>0.20311178772737171</v>
       </c>
       <c r="B89" s="2">
         <v>91</v>
@@ -4217,7 +4217,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51099948033127285</v>
+        <v>3.3549692278806553E-2</v>
       </c>
       <c r="B90" s="2">
         <v>380</v>
@@ -4241,7 +4241,7 @@
     <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94773171429861469</v>
+        <v>0.9892586032813957</v>
       </c>
       <c r="B91" s="2">
         <v>254</v>
@@ -4265,7 +4265,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27970069628982941</v>
+        <v>0.19026067453129081</v>
       </c>
       <c r="B92" s="2">
         <v>131</v>
@@ -4286,7 +4286,7 @@
     <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9951617352837827E-2</v>
+        <v>0.4786790161367479</v>
       </c>
       <c r="B93" s="2">
         <v>244</v>
@@ -4310,7 +4310,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96349059355709332</v>
+        <v>0.3389864040762256</v>
       </c>
       <c r="B94" s="2">
         <v>72</v>
@@ -4331,7 +4331,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52809674852032318</v>
+        <v>0.88970114881994333</v>
       </c>
       <c r="B95" s="2">
         <v>319</v>
@@ -4355,7 +4355,7 @@
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79077601195781444</v>
+        <v>7.5375675138790954E-2</v>
       </c>
       <c r="B96" s="2">
         <v>342</v>
@@ -4379,7 +4379,7 @@
     <row r="97" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8723875721793759</v>
+        <v>0.96046762608774205</v>
       </c>
       <c r="B97" s="2">
         <v>145</v>
@@ -4400,7 +4400,7 @@
     <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37480957544401727</v>
+        <v>0.96548037515156304</v>
       </c>
       <c r="B98" s="2">
         <v>223</v>
@@ -4421,7 +4421,7 @@
     <row r="99" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19503464208110588</v>
+        <v>0.39825872162315157</v>
       </c>
       <c r="B99" s="2">
         <v>169</v>
@@ -4445,7 +4445,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10934249077221003</v>
+        <v>0.54704977781007258</v>
       </c>
       <c r="B100" s="2">
         <v>354</v>
@@ -4469,7 +4469,7 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13656712900587431</v>
+        <v>0.15048543214710808</v>
       </c>
       <c r="B101" s="2">
         <v>368</v>
@@ -4493,7 +4493,7 @@
     <row r="102" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98093838649380494</v>
+        <v>0.83377251656175611</v>
       </c>
       <c r="B102" s="2">
         <v>79</v>
@@ -4517,7 +4517,7 @@
     <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40336604760871708</v>
+        <v>0.32279441595180491</v>
       </c>
       <c r="B103" s="2">
         <v>304</v>
@@ -4541,7 +4541,7 @@
     <row r="104" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30179271075435476</v>
+        <v>5.1182846790996273E-2</v>
       </c>
       <c r="B104" s="2">
         <v>220</v>
@@ -4565,7 +4565,7 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5585405958600731E-2</v>
+        <v>0.2210630195164548</v>
       </c>
       <c r="B105" s="2">
         <v>355</v>
@@ -4586,7 +4586,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59961707422441735</v>
+        <v>0.53498657197171684</v>
       </c>
       <c r="B106" s="2">
         <v>270</v>
@@ -4610,7 +4610,7 @@
     <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86535123560430205</v>
+        <v>5.0514772368526195E-3</v>
       </c>
       <c r="B107" s="2">
         <v>275</v>
@@ -4631,7 +4631,7 @@
     <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7144745019502361E-2</v>
+        <v>0.75508768589138986</v>
       </c>
       <c r="B108" s="2">
         <v>210</v>
@@ -4655,7 +4655,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2158312134717812E-2</v>
+        <v>0.46831604978032382</v>
       </c>
       <c r="B109" s="2">
         <v>256</v>
@@ -4676,7 +4676,7 @@
     <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38150091080805837</v>
+        <v>0.96986997290534982</v>
       </c>
       <c r="B110" s="2">
         <v>126</v>
@@ -4700,7 +4700,7 @@
     <row r="111" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15182865919664112</v>
+        <v>0.54924280601022402</v>
       </c>
       <c r="B111" s="2">
         <v>108</v>
@@ -4721,7 +4721,7 @@
     <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43290807781033891</v>
+        <v>0.39566082288593662</v>
       </c>
       <c r="B112" s="2">
         <v>103</v>
@@ -4745,7 +4745,7 @@
     <row r="113" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52547022133438637</v>
+        <v>0.77928121081748392</v>
       </c>
       <c r="B113" s="2">
         <v>153</v>
@@ -4769,7 +4769,7 @@
     <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15268083873119753</v>
+        <v>0.37572881168294203</v>
       </c>
       <c r="B114" s="2">
         <v>198</v>
@@ -4790,7 +4790,7 @@
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24668959349783748</v>
+        <v>0.31454278831465099</v>
       </c>
       <c r="B115" s="2">
         <v>130</v>
@@ -4814,7 +4814,7 @@
     <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13300458642136481</v>
+        <v>0.84474113964282871</v>
       </c>
       <c r="B116" s="2">
         <v>267</v>
@@ -4844,7 +4844,7 @@
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32049231687593549</v>
+        <v>0.81844912077477239</v>
       </c>
       <c r="B117" s="2">
         <v>206</v>
@@ -4868,7 +4868,7 @@
     <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7260956586052236E-2</v>
+        <v>0.23908660531442916</v>
       </c>
       <c r="B118" s="2">
         <v>49</v>
@@ -4892,7 +4892,7 @@
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6954514494040636E-2</v>
+        <v>0.96065070906911532</v>
       </c>
       <c r="B119" s="2">
         <v>139</v>
@@ -4916,7 +4916,7 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21147553532184005</v>
+        <v>0.20890053616933213</v>
       </c>
       <c r="B120" s="2">
         <v>255</v>
@@ -4937,7 +4937,7 @@
     <row r="121" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18531662272978433</v>
+        <v>0.31805599484315183</v>
       </c>
       <c r="B121" s="2">
         <v>24</v>
@@ -4958,7 +4958,7 @@
     <row r="122" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20606010689121612</v>
+        <v>0.48033410894415629</v>
       </c>
       <c r="B122" s="2">
         <v>296</v>
@@ -4985,7 +4985,7 @@
     <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73092995271775907</v>
+        <v>0.14369075476347237</v>
       </c>
       <c r="B123" s="2">
         <v>166</v>
@@ -5006,7 +5006,7 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54668147547161827</v>
+        <v>0.27940428778251769</v>
       </c>
       <c r="B124" s="2">
         <v>287</v>
@@ -5027,7 +5027,7 @@
     <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44298925069903194</v>
+        <v>0.62143505914829378</v>
       </c>
       <c r="B125" s="2">
         <v>323</v>
@@ -5051,7 +5051,7 @@
     <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68592632116325636</v>
+        <v>0.67915033925357104</v>
       </c>
       <c r="B126" s="2">
         <v>330</v>
@@ -5075,7 +5075,7 @@
     <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4566340888503545</v>
+        <v>0.2611711628761344</v>
       </c>
       <c r="B127" s="2">
         <v>373</v>
@@ -5099,7 +5099,7 @@
     <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27897547112071186</v>
+        <v>0.90322455625628029</v>
       </c>
       <c r="B128" s="2">
         <v>195</v>
@@ -5126,7 +5126,7 @@
     <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44413857530641854</v>
+        <v>0.72312548441532143</v>
       </c>
       <c r="B129" s="2">
         <v>352</v>
@@ -5150,7 +5150,7 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.19695320208808775</v>
+        <v>0.24879652719412426</v>
       </c>
       <c r="B130" s="2">
         <v>269</v>
@@ -5174,7 +5174,7 @@
     <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12362991178956184</v>
+        <v>0.5477006283965411</v>
       </c>
       <c r="B131" s="2">
         <v>125</v>
@@ -5198,7 +5198,7 @@
     <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89512369113821288</v>
+        <v>0.82350653719266276</v>
       </c>
       <c r="B132" s="2">
         <v>64</v>
@@ -5222,7 +5222,7 @@
     <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75937433275559141</v>
+        <v>0.85776577830351808</v>
       </c>
       <c r="B133" s="2">
         <v>340</v>
@@ -5246,7 +5246,7 @@
     <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94772468693455036</v>
+        <v>0.22482583659414312</v>
       </c>
       <c r="B134" s="2">
         <v>88</v>
@@ -5270,7 +5270,7 @@
     <row r="135" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.954263161785414E-2</v>
+        <v>0.85641383969444873</v>
       </c>
       <c r="B135" s="2">
         <v>95</v>
@@ -5291,7 +5291,7 @@
     <row r="136" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60665387406104287</v>
+        <v>0.35624878256419945</v>
       </c>
       <c r="B136" s="2">
         <v>211</v>
@@ -5315,7 +5315,7 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28980979653481087</v>
+        <v>0.82186432493224881</v>
       </c>
       <c r="B137" s="2">
         <v>35</v>
@@ -5336,7 +5336,7 @@
     <row r="138" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44113326420078713</v>
+        <v>0.63782384174721052</v>
       </c>
       <c r="B138" s="2">
         <v>84</v>
@@ -5360,7 +5360,7 @@
     <row r="139" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77744563066076144</v>
+        <v>0.7281302094738924</v>
       </c>
       <c r="B139" s="2">
         <v>159</v>
@@ -5384,7 +5384,7 @@
     <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57064498347802706</v>
+        <v>0.4433193204482937</v>
       </c>
       <c r="B140" s="2">
         <v>234</v>
@@ -5405,7 +5405,7 @@
     <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23308954843148233</v>
+        <v>0.55791602232105919</v>
       </c>
       <c r="B141" s="2">
         <v>360</v>
@@ -5426,7 +5426,7 @@
     <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92020783664264638</v>
+        <v>0.1472744783240818</v>
       </c>
       <c r="B142" s="2">
         <v>358</v>
@@ -5450,7 +5450,7 @@
     <row r="143" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11658122165130036</v>
+        <v>0.98017836368377576</v>
       </c>
       <c r="B143" s="2">
         <v>181</v>
@@ -5474,7 +5474,7 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72866722734997325</v>
+        <v>0.8589655699347184</v>
       </c>
       <c r="B144" s="2">
         <v>207</v>
@@ -5495,7 +5495,7 @@
     <row r="145" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78592627474088506</v>
+        <v>2.9543079525178761E-2</v>
       </c>
       <c r="B145" s="2">
         <v>56</v>
@@ -5519,7 +5519,7 @@
     <row r="146" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73504352142889773</v>
+        <v>0.50225994469674284</v>
       </c>
       <c r="B146" s="2">
         <v>300</v>
@@ -5546,7 +5546,7 @@
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53745463429349283</v>
+        <v>0.58772607309449509</v>
       </c>
       <c r="B147" s="2">
         <v>312</v>
@@ -5567,7 +5567,7 @@
     <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5549720818983146</v>
+        <v>0.85385226358644983</v>
       </c>
       <c r="B148" s="2">
         <v>157</v>
@@ -5591,7 +5591,7 @@
     <row r="149" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63283232076658402</v>
+        <v>0.19320364313303096</v>
       </c>
       <c r="B149" s="4">
         <v>306</v>
@@ -5618,7 +5618,7 @@
     <row r="150" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83417502514640762</v>
+        <v>0.4132641479953858</v>
       </c>
       <c r="B150" s="2">
         <v>149</v>
@@ -5642,7 +5642,7 @@
     <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46741590372076025</v>
+        <v>0.90065729108115056</v>
       </c>
       <c r="B151" s="2">
         <v>38</v>
@@ -5666,7 +5666,7 @@
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69758037150227326</v>
+        <v>0.81660587352169223</v>
       </c>
       <c r="B152" s="2">
         <v>63</v>
@@ -5690,7 +5690,7 @@
     <row r="153" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22193705236012806</v>
+        <v>0.82726764134283526</v>
       </c>
       <c r="B153" s="2">
         <v>110</v>
@@ -5714,7 +5714,7 @@
     <row r="154" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90850596560530261</v>
+        <v>0.66874146779310129</v>
       </c>
       <c r="B154" s="2">
         <v>76</v>
@@ -5738,7 +5738,7 @@
     <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9686169317365535</v>
+        <v>0.68680448377457093</v>
       </c>
       <c r="B155" s="2">
         <v>167</v>
@@ -5762,7 +5762,7 @@
     <row r="156" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74502893906271717</v>
+        <v>0.1859454505765864</v>
       </c>
       <c r="B156" s="2">
         <v>328</v>
@@ -5783,7 +5783,7 @@
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0582368932485391E-2</v>
+        <v>0.972946274885652</v>
       </c>
       <c r="B157" s="2">
         <v>219</v>
@@ -5807,7 +5807,7 @@
     <row r="158" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97345604969256005</v>
+        <v>0.79722296680272575</v>
       </c>
       <c r="B158" s="2">
         <v>94</v>
@@ -5831,7 +5831,7 @@
     <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4086250294604761E-2</v>
+        <v>0.61541816695020013</v>
       </c>
       <c r="B159" s="2">
         <v>54</v>
@@ -5852,7 +5852,7 @@
     <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56990389037410227</v>
+        <v>0.8695416128490665</v>
       </c>
       <c r="B160" s="2">
         <v>265</v>
@@ -5879,7 +5879,7 @@
     <row r="161" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71950185632344688</v>
+        <v>0.9807827364982199</v>
       </c>
       <c r="B161" s="2">
         <v>274</v>
@@ -5900,7 +5900,7 @@
     <row r="162" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7602262047679692</v>
+        <v>0.40144159410102054</v>
       </c>
       <c r="B162" s="2">
         <v>119</v>
@@ -5921,7 +5921,7 @@
     <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31554850329389084</v>
+        <v>0.4855823456792191</v>
       </c>
       <c r="B163" s="2">
         <v>173</v>
@@ -5945,7 +5945,7 @@
     <row r="164" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1064205929577472</v>
+        <v>7.8426961115948934E-2</v>
       </c>
       <c r="B164" s="2">
         <v>134</v>
@@ -5969,7 +5969,7 @@
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65873708883621862</v>
+        <v>0.1779255698291522</v>
       </c>
       <c r="B165" s="2">
         <v>60</v>
@@ -5990,7 +5990,7 @@
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9637015218292464</v>
+        <v>1.5391496163060236E-2</v>
       </c>
       <c r="B166" s="2">
         <v>107</v>
@@ -6014,7 +6014,7 @@
     <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44484108776638509</v>
+        <v>0.37397096549130826</v>
       </c>
       <c r="B167" s="2">
         <v>82</v>
@@ -6038,7 +6038,7 @@
     <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28827515260614889</v>
+        <v>7.6100971912468229E-2</v>
       </c>
       <c r="B168" s="2">
         <v>46</v>
@@ -6065,7 +6065,7 @@
     <row r="169" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48985636491612161</v>
+        <v>2.8601927324895748E-2</v>
       </c>
       <c r="B169" s="2">
         <v>188</v>
@@ -6089,7 +6089,7 @@
     <row r="170" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64308221546297106</v>
+        <v>0.6088765375555345</v>
       </c>
       <c r="B170" s="2">
         <v>320</v>
@@ -6116,7 +6116,7 @@
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84670718568436709</v>
+        <v>0.33493150618282164</v>
       </c>
       <c r="B171" s="2">
         <v>259</v>
@@ -6137,7 +6137,7 @@
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85997144362482281</v>
+        <v>0.50437117591978697</v>
       </c>
       <c r="B172" s="2">
         <v>277</v>
@@ -6158,7 +6158,7 @@
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52156373860545069</v>
+        <v>0.19737798077738311</v>
       </c>
       <c r="B173" s="2">
         <v>222</v>
@@ -6182,7 +6182,7 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41519520524691678</v>
+        <v>0.63560674026193376</v>
       </c>
       <c r="B174" s="2">
         <v>381</v>
@@ -6206,7 +6206,7 @@
     <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84441545933737772</v>
+        <v>0.697718032150629</v>
       </c>
       <c r="B175" s="2">
         <v>379</v>
@@ -6230,7 +6230,7 @@
     <row r="176" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88278014948100703</v>
+        <v>7.5331533349141222E-2</v>
       </c>
       <c r="B176" s="2">
         <v>230</v>
@@ -6254,7 +6254,7 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32435433277667935</v>
+        <v>0.19976094775060549</v>
       </c>
       <c r="B177" s="2">
         <v>278</v>
@@ -6278,7 +6278,7 @@
     <row r="178" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7231929351583388E-2</v>
+        <v>0.74130242695430182</v>
       </c>
       <c r="B178" s="2">
         <v>122</v>
@@ -6302,7 +6302,7 @@
     <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0872714596092412E-2</v>
+        <v>0.31868302086113154</v>
       </c>
       <c r="B179" s="2">
         <v>218</v>
@@ -6326,7 +6326,7 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11718892137941173</v>
+        <v>7.0587149590714993E-2</v>
       </c>
       <c r="B180" s="2">
         <v>346</v>
@@ -6353,7 +6353,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98538145747435824</v>
+        <v>0.7426123403849979</v>
       </c>
       <c r="B181" s="2">
         <v>68</v>
@@ -6377,7 +6377,7 @@
     <row r="182" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57693453687799967</v>
+        <v>0.50248880355408221</v>
       </c>
       <c r="B182" s="2">
         <v>331</v>
@@ -6401,7 +6401,7 @@
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16376952733000461</v>
+        <v>0.74418957813851971</v>
       </c>
       <c r="B183" s="2">
         <v>39</v>
@@ -6422,7 +6422,7 @@
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31414502072209816</v>
+        <v>0.71539955680043332</v>
       </c>
       <c r="B184" s="2">
         <v>187</v>
@@ -6446,7 +6446,7 @@
     <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8598967357155307E-2</v>
+        <v>0.63295372671251915</v>
       </c>
       <c r="B185" s="2">
         <v>172</v>
@@ -6470,7 +6470,7 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85920051986874513</v>
+        <v>0.69769763997790479</v>
       </c>
       <c r="B186" s="2">
         <v>216</v>
@@ -6491,7 +6491,7 @@
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8778090203893405</v>
+        <v>0.59536296956871959</v>
       </c>
       <c r="B187" s="2">
         <v>324</v>
@@ -6515,7 +6515,7 @@
     <row r="188" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24495255421280115</v>
+        <v>0.82425295630517448</v>
       </c>
       <c r="B188" s="2">
         <v>301</v>
@@ -6542,7 +6542,7 @@
     <row r="189" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22963698662075627</v>
+        <v>0.84606337623755212</v>
       </c>
       <c r="B189" s="2">
         <v>179</v>
@@ -6566,7 +6566,7 @@
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8338692132853508</v>
+        <v>5.5451532785574797E-2</v>
       </c>
       <c r="B190" s="2">
         <v>317</v>
@@ -6590,7 +6590,7 @@
     <row r="191" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9466786910734446</v>
+        <v>0.55797441301900974</v>
       </c>
       <c r="B191" s="2">
         <v>148</v>
@@ -6617,7 +6617,7 @@
     <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31736708431226468</v>
+        <v>0.44518694865656383</v>
       </c>
       <c r="B192" s="2">
         <v>341</v>
@@ -6641,7 +6641,7 @@
     <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43095500342477888</v>
+        <v>0.40251251340135819</v>
       </c>
       <c r="B193" s="2">
         <v>178</v>
@@ -6662,7 +6662,7 @@
     <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.37703119593007761</v>
+        <v>7.6622585548966837E-2</v>
       </c>
       <c r="B194" s="2">
         <v>315</v>
@@ -6686,7 +6686,7 @@
     <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15668388499106911</v>
+        <v>0.22492436395762616</v>
       </c>
       <c r="B195" s="2">
         <v>62</v>
@@ -6707,7 +6707,7 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59406070979081049</v>
+        <v>0.48003487356174201</v>
       </c>
       <c r="B196" s="2">
         <v>203</v>
@@ -6731,7 +6731,7 @@
     <row r="197" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88519676086460009</v>
+        <v>0.6684035283531764</v>
       </c>
       <c r="B197" s="2">
         <v>140</v>
@@ -6752,7 +6752,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65696161071094206</v>
+        <v>0.71785071554833602</v>
       </c>
       <c r="B198" s="2">
         <v>350</v>
@@ -6779,7 +6779,7 @@
     <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66196680022613241</v>
+        <v>0.6480647232007205</v>
       </c>
       <c r="B199" s="2">
         <v>44</v>
@@ -6803,7 +6803,7 @@
     <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97955711797121137</v>
+        <v>0.37607000602653906</v>
       </c>
       <c r="B200" s="2">
         <v>100</v>
@@ -6824,7 +6824,7 @@
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67841401216074526</v>
+        <v>0.22474713602168905</v>
       </c>
       <c r="B201" s="2">
         <v>115</v>
@@ -6848,7 +6848,7 @@
     <row r="202" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75449129903263623</v>
+        <v>0.1413524756135307</v>
       </c>
       <c r="B202" s="2">
         <v>176</v>
@@ -6872,7 +6872,7 @@
     <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86131411221752097</v>
+        <v>0.12076045542722369</v>
       </c>
       <c r="B203" s="2">
         <v>146</v>
@@ -6896,7 +6896,7 @@
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51713886902751582</v>
+        <v>0.16521924275337174</v>
       </c>
       <c r="B204" s="2">
         <v>359</v>
@@ -6923,7 +6923,7 @@
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4957174203578425</v>
+        <v>0.45732796710985335</v>
       </c>
       <c r="B205" s="2">
         <v>58</v>
@@ -6947,7 +6947,7 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48530258696937556</v>
+        <v>0.4126856087443691</v>
       </c>
       <c r="B206" s="2">
         <v>29</v>
@@ -6971,7 +6971,7 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37697798428252682</v>
+        <v>0.39446622359682038</v>
       </c>
       <c r="B207" s="2">
         <v>34</v>
@@ -6995,7 +6995,7 @@
     <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80938595124867929</v>
+        <v>0.29991163302256962</v>
       </c>
       <c r="B208" s="2">
         <v>299</v>
@@ -7019,7 +7019,7 @@
     <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4501246761526447E-2</v>
+        <v>0.3336576682954282</v>
       </c>
       <c r="B209" s="2">
         <v>280</v>
@@ -7046,7 +7046,7 @@
     <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96564522013529408</v>
+        <v>0.52473560127720131</v>
       </c>
       <c r="B210" s="2">
         <v>325</v>
@@ -7070,7 +7070,7 @@
     <row r="211" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56846478837461212</v>
+        <v>0.30366350736354675</v>
       </c>
       <c r="B211" s="2">
         <v>97</v>
@@ -7094,7 +7094,7 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12393924437948522</v>
+        <v>0.82455995217723776</v>
       </c>
       <c r="B212" s="2">
         <v>322</v>
@@ -7118,7 +7118,7 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54220012745778512</v>
+        <v>0.73347448957981798</v>
       </c>
       <c r="B213" s="2">
         <v>369</v>
@@ -7142,7 +7142,7 @@
     <row r="214" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24209294559298367</v>
+        <v>0.43101176497428473</v>
       </c>
       <c r="B214" s="2">
         <v>50</v>
@@ -7169,7 +7169,7 @@
     <row r="215" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50681287521344354</v>
+        <v>0.11679296780574422</v>
       </c>
       <c r="B215" s="2">
         <v>177</v>
@@ -7196,7 +7196,7 @@
     <row r="216" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62080663009169323</v>
+        <v>9.2560239767203401E-2</v>
       </c>
       <c r="B216" s="2">
         <v>282</v>
@@ -7217,7 +7217,7 @@
     <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69547371551661563</v>
+        <v>0.87144539164213919</v>
       </c>
       <c r="B217" s="2">
         <v>221</v>
@@ -7241,7 +7241,7 @@
     <row r="218" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95144339356279573</v>
+        <v>0.29716428975347253</v>
       </c>
       <c r="B218" s="2">
         <v>92</v>
@@ -7265,7 +7265,7 @@
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4023241061231867</v>
+        <v>0.85185767952845592</v>
       </c>
       <c r="B219" s="2">
         <v>326</v>
@@ -7289,7 +7289,7 @@
     <row r="220" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40381034177577924</v>
+        <v>0.90297653789375187</v>
       </c>
       <c r="B220" s="2">
         <v>118</v>
@@ -7313,7 +7313,7 @@
     <row r="221" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6116675281491103</v>
+        <v>0.43445889595100984</v>
       </c>
       <c r="B221" s="2">
         <v>83</v>
@@ -7337,7 +7337,7 @@
     <row r="222" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30661285055598808</v>
+        <v>0.12382408336483275</v>
       </c>
       <c r="B222" s="2">
         <v>25</v>
@@ -7358,7 +7358,7 @@
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97254557801120156</v>
+        <v>0.84042734669286034</v>
       </c>
       <c r="B223" s="2">
         <v>260</v>
@@ -7382,7 +7382,7 @@
     <row r="224" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68751222305101833</v>
+        <v>0.64428504770617268</v>
       </c>
       <c r="B224" s="2">
         <v>137</v>
@@ -7403,7 +7403,7 @@
     <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7205810726765081E-2</v>
+        <v>0.20794433738703766</v>
       </c>
       <c r="B225" s="2">
         <v>303</v>
@@ -7433,7 +7433,7 @@
     <row r="226" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43457271099099137</v>
+        <v>0.10870254150502801</v>
       </c>
       <c r="B226" s="2">
         <v>228</v>
@@ -7457,7 +7457,7 @@
     <row r="227" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22742818166170453</v>
+        <v>0.73186283548659525</v>
       </c>
       <c r="B227" s="2">
         <v>321</v>
@@ -7481,7 +7481,7 @@
     <row r="228" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14921785491512163</v>
+        <v>0.49083566345639151</v>
       </c>
       <c r="B228" s="2">
         <v>142</v>
@@ -7502,7 +7502,7 @@
     <row r="229" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14861389566337357</v>
+        <v>0.37907677106700099</v>
       </c>
       <c r="B229" s="2">
         <v>48</v>
@@ -7526,7 +7526,7 @@
     <row r="230" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4947782461047838E-3</v>
+        <v>0.82152820446270514</v>
       </c>
       <c r="B230" s="2">
         <v>106</v>
@@ -7550,7 +7550,7 @@
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33122544790746578</v>
+        <v>0.6897671795218252</v>
       </c>
       <c r="B231" s="2">
         <v>215</v>
@@ -7574,7 +7574,7 @@
     <row r="232" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89941431690057605</v>
+        <v>0.44290271923502089</v>
       </c>
       <c r="B232" s="2">
         <v>99</v>
@@ -7595,7 +7595,7 @@
     <row r="233" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88406086481554302</v>
+        <v>0.99890336968393501</v>
       </c>
       <c r="B233" s="2">
         <v>104</v>
@@ -7619,7 +7619,7 @@
     <row r="234" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92303940741264523</v>
+        <v>0.36808289574199216</v>
       </c>
       <c r="B234" s="2">
         <v>316</v>
@@ -7646,7 +7646,7 @@
     <row r="235" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6358778741986485</v>
+        <v>0.53578941740421626</v>
       </c>
       <c r="B235" s="2">
         <v>313</v>
@@ -7667,7 +7667,7 @@
     <row r="236" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73149353774575709</v>
+        <v>0.74652195297957935</v>
       </c>
       <c r="B236" s="2">
         <v>243</v>
@@ -7691,7 +7691,7 @@
     <row r="237" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42179450998809698</v>
+        <v>0.65017717943625275</v>
       </c>
       <c r="B237" s="2">
         <v>351</v>
@@ -7715,7 +7715,7 @@
     <row r="238" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36516738881771516</v>
+        <v>0.93504040803587007</v>
       </c>
       <c r="B238" s="2">
         <v>65</v>
@@ -7739,7 +7739,7 @@
     <row r="239" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16847181984265547</v>
+        <v>0.32952182622044823</v>
       </c>
       <c r="B239" s="2">
         <v>171</v>
@@ -7763,7 +7763,7 @@
     <row r="240" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92853674177267143</v>
+        <v>0.41351991588448367</v>
       </c>
       <c r="B240" s="2">
         <v>345</v>
@@ -7784,7 +7784,7 @@
     <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86002069468562425</v>
+        <v>0.64407197281219941</v>
       </c>
       <c r="B241" s="2">
         <v>292</v>
@@ -7808,7 +7808,7 @@
     <row r="242" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.461281578293535</v>
+        <v>9.4515342716924189E-2</v>
       </c>
       <c r="B242" s="2">
         <v>261</v>
@@ -7832,7 +7832,7 @@
     <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70752385824070119</v>
+        <v>0.60763258639775053</v>
       </c>
       <c r="B243" s="2">
         <v>348</v>
@@ -7856,7 +7856,7 @@
     <row r="244" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.053433267648924E-2</v>
+        <v>0.46197633084830558</v>
       </c>
       <c r="B244" s="2">
         <v>365</v>
@@ -7880,7 +7880,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20406144935877502</v>
+        <v>0.59259606685434907</v>
       </c>
       <c r="B245" s="2">
         <v>52</v>
@@ -7904,7 +7904,7 @@
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57084707496593234</v>
+        <v>0.31289425441620888</v>
       </c>
       <c r="B246" s="2">
         <v>377</v>
@@ -7928,7 +7928,7 @@
     <row r="247" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9734543742228778E-2</v>
+        <v>0.73553236998647709</v>
       </c>
       <c r="B247" s="2">
         <v>69</v>
@@ -7952,7 +7952,7 @@
     <row r="248" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68422793987444896</v>
+        <v>0.44217359079042762</v>
       </c>
       <c r="B248" s="2">
         <v>158</v>
@@ -7979,7 +7979,7 @@
     <row r="249" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6804412082695257E-2</v>
+        <v>0.45028053619606712</v>
       </c>
       <c r="B249" s="2">
         <v>20</v>
@@ -8003,7 +8003,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61960114533546518</v>
+        <v>0.12148145767415364</v>
       </c>
       <c r="B250" s="2">
         <v>87</v>
@@ -8024,7 +8024,7 @@
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1759002668376568</v>
+        <v>0.12974753539510797</v>
       </c>
       <c r="B251" s="2">
         <v>338</v>
@@ -8045,7 +8045,7 @@
     <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99820714933239951</v>
+        <v>0.66397449841724032</v>
       </c>
       <c r="B252" s="2">
         <v>241</v>
@@ -8069,7 +8069,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61651604523654602</v>
+        <v>0.17011560754050203</v>
       </c>
       <c r="B253" s="2">
         <v>266</v>
@@ -8090,7 +8090,7 @@
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38880727308447605</v>
+        <v>0.73111783327068791</v>
       </c>
       <c r="B254" s="2">
         <v>232</v>
@@ -8114,7 +8114,7 @@
     <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35892647549709711</v>
+        <v>0.41571371570074378</v>
       </c>
       <c r="B255" s="2">
         <v>41</v>
@@ -8135,7 +8135,7 @@
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71090506272512366</v>
+        <v>0.78047284771090519</v>
       </c>
       <c r="B256" s="2">
         <v>168</v>
@@ -8159,7 +8159,7 @@
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65639598505997754</v>
+        <v>0.5034817804312649</v>
       </c>
       <c r="B257" s="2">
         <v>268</v>
@@ -8180,7 +8180,7 @@
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A321" ca="1" si="4">RAND()</f>
-        <v>0.69597142506444964</v>
+        <v>5.6823020930595325E-2</v>
       </c>
       <c r="B258" s="2">
         <v>289</v>
@@ -8204,7 +8204,7 @@
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47141354642184929</v>
+        <v>0.48541549535355955</v>
       </c>
       <c r="B259" s="2">
         <v>356</v>
@@ -8225,7 +8225,7 @@
     <row r="260" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41591670335527531</v>
+        <v>0.80554705278954941</v>
       </c>
       <c r="B260" s="2">
         <v>192</v>
@@ -8246,7 +8246,7 @@
     <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32241963939831775</v>
+        <v>3.036226859493274E-2</v>
       </c>
       <c r="B261" s="2">
         <v>59</v>
@@ -8270,7 +8270,7 @@
     <row r="262" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78488637829749353</v>
+        <v>0.38139117244195841</v>
       </c>
       <c r="B262" s="2">
         <v>281</v>
@@ -8294,7 +8294,7 @@
     <row r="263" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22698191863920181</v>
+        <v>0.21740943738426854</v>
       </c>
       <c r="B263" s="2">
         <v>263</v>
@@ -8321,7 +8321,7 @@
     <row r="264" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16294541571693233</v>
+        <v>0.45588912175806251</v>
       </c>
       <c r="B264" s="2">
         <v>150</v>
@@ -8345,7 +8345,7 @@
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87582868483744725</v>
+        <v>0.11796326815048452</v>
       </c>
       <c r="B265" s="2">
         <v>30</v>
@@ -8366,7 +8366,7 @@
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20217156302200445</v>
+        <v>0.73626369470032027</v>
       </c>
       <c r="B266" s="2">
         <v>276</v>
@@ -8390,7 +8390,7 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16555536893973233</v>
+        <v>0.35912245839342483</v>
       </c>
       <c r="B267" s="2">
         <v>194</v>
@@ -8414,7 +8414,7 @@
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6341291518720729E-2</v>
+        <v>0.17136698417006591</v>
       </c>
       <c r="B268" s="2">
         <v>374</v>
@@ -8438,7 +8438,7 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7102707170825857E-2</v>
+        <v>0.99233492078862617</v>
       </c>
       <c r="B269" s="2">
         <v>74</v>
@@ -8462,7 +8462,7 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46279125477795202</v>
+        <v>0.55059338342295594</v>
       </c>
       <c r="B270" s="2">
         <v>382</v>
@@ -8483,7 +8483,7 @@
     <row r="271" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59467128428768501</v>
+        <v>0.97708188517277117</v>
       </c>
       <c r="B271" s="2">
         <v>124</v>
@@ -8507,7 +8507,7 @@
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3967973751952929</v>
+        <v>0.80897032913147482</v>
       </c>
       <c r="B272" s="2">
         <v>231</v>
@@ -8531,7 +8531,7 @@
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80252044094018504</v>
+        <v>0.40626794839110525</v>
       </c>
       <c r="B273" s="2">
         <v>112</v>
@@ -8552,7 +8552,7 @@
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82651790903899547</v>
+        <v>0.56163196126418824</v>
       </c>
       <c r="B274" s="2">
         <v>89</v>
@@ -8576,7 +8576,7 @@
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25095190644845933</v>
+        <v>0.72023107837520595</v>
       </c>
       <c r="B275" s="2">
         <v>257</v>
@@ -8597,7 +8597,7 @@
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39244923096746165</v>
+        <v>0.9998723921253071</v>
       </c>
       <c r="B276" s="2">
         <v>43</v>
@@ -8621,7 +8621,7 @@
     <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7187960937653084</v>
+        <v>0.49351198068246538</v>
       </c>
       <c r="B277" s="2">
         <v>163</v>
@@ -8642,7 +8642,7 @@
     <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60284095775373303</v>
+        <v>0.42150439414628749</v>
       </c>
       <c r="B278" s="2">
         <v>61</v>
@@ -8663,7 +8663,7 @@
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47747476668812538</v>
+        <v>0.74464790690480975</v>
       </c>
       <c r="B279" s="2">
         <v>42</v>
@@ -8687,7 +8687,7 @@
     <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72087899956163271</v>
+        <v>0.29855565135016537</v>
       </c>
       <c r="B280" s="2">
         <v>156</v>
@@ -8708,7 +8708,7 @@
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92314433509248928</v>
+        <v>0.21756371919900519</v>
       </c>
       <c r="B281" s="2">
         <v>186</v>
@@ -8732,7 +8732,7 @@
     <row r="282" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63203127414885751</v>
+        <v>0.64203522605856567</v>
       </c>
       <c r="B282" s="2">
         <v>189</v>
@@ -8759,7 +8759,7 @@
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6201684281293223E-2</v>
+        <v>0.54262033635534046</v>
       </c>
       <c r="B283" s="2">
         <v>75</v>
@@ -8783,7 +8783,7 @@
     <row r="284" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76479926535316045</v>
+        <v>0.76538144424905497</v>
       </c>
       <c r="B284" s="2">
         <v>184</v>
@@ -8807,7 +8807,7 @@
     <row r="285" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33207828876100132</v>
+        <v>6.1889818064447266E-2</v>
       </c>
       <c r="B285" s="2">
         <v>53</v>
@@ -8831,7 +8831,7 @@
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19390349819752251</v>
+        <v>0.43727849466615198</v>
       </c>
       <c r="B286" s="2">
         <v>284</v>
@@ -8855,7 +8855,7 @@
     <row r="287" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33093309214221067</v>
+        <v>0.85683680869912104</v>
       </c>
       <c r="B287" s="2">
         <v>293</v>
@@ -8876,7 +8876,7 @@
     <row r="288" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81076284921065045</v>
+        <v>0.91801099453587609</v>
       </c>
       <c r="B288" s="2">
         <v>147</v>
@@ -8900,7 +8900,7 @@
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71633545428327094</v>
+        <v>0.69263360667037643</v>
       </c>
       <c r="B289" s="2">
         <v>311</v>
@@ -8921,7 +8921,7 @@
     <row r="290" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64948637633045425</v>
+        <v>0.41353067524872944</v>
       </c>
       <c r="B290" s="2">
         <v>247</v>
@@ -8945,7 +8945,7 @@
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41392096249850774</v>
+        <v>0.90185849959472708</v>
       </c>
       <c r="B291" s="2">
         <v>370</v>
@@ -8966,7 +8966,7 @@
     <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48534075667697274</v>
+        <v>0.24133642428238145</v>
       </c>
       <c r="B292" s="2">
         <v>229</v>
@@ -8987,7 +8987,7 @@
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79300305363532231</v>
+        <v>0.98532151642575272</v>
       </c>
       <c r="B293" s="2">
         <v>144</v>
@@ -9014,7 +9014,7 @@
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82906833864805762</v>
+        <v>0.44657953645810644</v>
       </c>
       <c r="B294" s="2">
         <v>114</v>
@@ -9038,7 +9038,7 @@
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36962773376805746</v>
+        <v>0.85189731923932199</v>
       </c>
       <c r="B295" s="2">
         <v>349</v>
@@ -9062,7 +9062,7 @@
     <row r="296" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25429524458453157</v>
+        <v>0.72711599497091917</v>
       </c>
       <c r="B296" s="2">
         <v>183</v>
@@ -9086,7 +9086,7 @@
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84905581000250974</v>
+        <v>0.26329860587169129</v>
       </c>
       <c r="B297" s="2">
         <v>327</v>
@@ -9110,7 +9110,7 @@
     <row r="298" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99229549057458988</v>
+        <v>8.0534956109634681E-3</v>
       </c>
       <c r="B298" s="2">
         <v>102</v>
@@ -9131,7 +9131,7 @@
     <row r="299" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82372707923803812</v>
+        <v>0.78131976224843935</v>
       </c>
       <c r="B299" s="2">
         <v>209</v>
@@ -9152,7 +9152,7 @@
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95008626207932156</v>
+        <v>0.33588030740490926</v>
       </c>
       <c r="B300" s="2">
         <v>36</v>
@@ -9176,7 +9176,7 @@
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47806385101224225</v>
+        <v>0.27874914841637111</v>
       </c>
       <c r="B301" s="2">
         <v>264</v>
@@ -9200,7 +9200,7 @@
     <row r="302" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1906110649727073</v>
+        <v>0.64123776835463053</v>
       </c>
       <c r="B302" s="2">
         <v>283</v>
@@ -9224,7 +9224,7 @@
     <row r="303" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57309932069465153</v>
+        <v>0.11401264564872304</v>
       </c>
       <c r="B303" s="2">
         <v>295</v>
@@ -9251,7 +9251,7 @@
     <row r="304" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4700392451615244</v>
+        <v>0.68521433638175255</v>
       </c>
       <c r="B304" s="2">
         <v>333</v>
@@ -9272,7 +9272,7 @@
     <row r="305" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2509459869584587E-2</v>
+        <v>0.19335106793464563</v>
       </c>
       <c r="B305" s="2">
         <v>205</v>
@@ -9296,7 +9296,7 @@
     <row r="306" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9055510229881889</v>
+        <v>0.95882505752372138</v>
       </c>
       <c r="B306" s="2">
         <v>27</v>
@@ -9320,7 +9320,7 @@
     <row r="307" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70867995067977763</v>
+        <v>0.90944196627934804</v>
       </c>
       <c r="B307" s="2">
         <v>286</v>
@@ -9344,7 +9344,7 @@
     <row r="308" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9467480410235376</v>
+        <v>0.93526081883059076</v>
       </c>
       <c r="B308" s="2">
         <v>162</v>
@@ -9368,7 +9368,7 @@
     <row r="309" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3145102146118552E-2</v>
+        <v>0.51750052145936287</v>
       </c>
       <c r="B309" s="2">
         <v>80</v>
@@ -9392,7 +9392,7 @@
     <row r="310" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79914960708299854</v>
+        <v>0.15314341249775354</v>
       </c>
       <c r="B310" s="2">
         <v>357</v>
@@ -9416,7 +9416,7 @@
     <row r="311" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96048969969781006</v>
+        <v>0.13364750968684225</v>
       </c>
       <c r="B311" s="2">
         <v>305</v>
@@ -9440,7 +9440,7 @@
     <row r="312" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5196742933814962E-2</v>
+        <v>0.99712540200478772</v>
       </c>
       <c r="B312" s="2">
         <v>308</v>
@@ -9461,7 +9461,7 @@
     <row r="313" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42195071806714546</v>
+        <v>0.87143053134241066</v>
       </c>
       <c r="B313" s="2">
         <v>22</v>
@@ -9482,7 +9482,7 @@
     <row r="314" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74191295917169664</v>
+        <v>0.69073318658363025</v>
       </c>
       <c r="B314" s="2">
         <v>105</v>
@@ -9503,7 +9503,7 @@
     <row r="315" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95837455043237507</v>
+        <v>0.76632674822223368</v>
       </c>
       <c r="B315" s="2">
         <v>233</v>
@@ -9527,7 +9527,7 @@
     <row r="316" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33274698771879307</v>
+        <v>0.74693100284143699</v>
       </c>
       <c r="B316" s="2">
         <v>298</v>
@@ -9551,7 +9551,7 @@
     <row r="317" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84512709063805724</v>
+        <v>0.822819713641052</v>
       </c>
       <c r="B317" s="2">
         <v>339</v>
@@ -9575,7 +9575,7 @@
     <row r="318" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46667519194164919</v>
+        <v>0.21820735025009919</v>
       </c>
       <c r="B318" s="2">
         <v>190</v>
@@ -9599,7 +9599,7 @@
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67983742213059273</v>
+        <v>0.98997998039191137</v>
       </c>
       <c r="B319" s="2">
         <v>208</v>
@@ -9623,7 +9623,7 @@
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96579736661687188</v>
+        <v>0.12901791742203583</v>
       </c>
       <c r="B320" s="2">
         <v>199</v>
@@ -9644,7 +9644,7 @@
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60691084442280074</v>
+        <v>0.65223567399466387</v>
       </c>
       <c r="B321" s="2">
         <v>204</v>
@@ -9668,7 +9668,7 @@
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <f t="shared" ref="A322:A367" ca="1" si="5">RAND()</f>
-        <v>0.69047393116791778</v>
+        <v>0.44711171912620606</v>
       </c>
       <c r="B322" s="2">
         <v>86</v>
@@ -9692,7 +9692,7 @@
     <row r="323" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61137642583036178</v>
+        <v>0.8527205349215452</v>
       </c>
       <c r="B323" s="2">
         <v>18</v>
@@ -9716,7 +9716,7 @@
     <row r="324" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30924745190956071</v>
+        <v>0.72865695671638075</v>
       </c>
       <c r="B324" s="2">
         <v>248</v>
@@ -9743,7 +9743,7 @@
     <row r="325" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96940989447389769</v>
+        <v>0.60989772952746402</v>
       </c>
       <c r="B325" s="2">
         <v>175</v>
@@ -9770,7 +9770,7 @@
     <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95861203502916437</v>
+        <v>0.94241260503334889</v>
       </c>
       <c r="B326" s="2">
         <v>237</v>
@@ -9791,7 +9791,7 @@
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16513281956895787</v>
+        <v>0.88308679082028629</v>
       </c>
       <c r="B327" s="2">
         <v>23</v>
@@ -9815,7 +9815,7 @@
     <row r="328" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66826147577476902</v>
+        <v>0.14932994158040758</v>
       </c>
       <c r="B328" s="2">
         <v>180</v>
@@ -9839,7 +9839,7 @@
     <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20449326303494897</v>
+        <v>0.49688457372456629</v>
       </c>
       <c r="B329" s="2">
         <v>329</v>
@@ -9860,7 +9860,7 @@
     <row r="330" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84057213988478074</v>
+        <v>0.93459924036140185</v>
       </c>
       <c r="B330" s="2">
         <v>90</v>
@@ -9884,7 +9884,7 @@
     <row r="331" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74040569644852772</v>
+        <v>0.74333753086487953</v>
       </c>
       <c r="B331" s="2">
         <v>272</v>
@@ -9908,7 +9908,7 @@
     <row r="332" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76446306350489301</v>
+        <v>0.90607093960885565</v>
       </c>
       <c r="B332" s="2">
         <v>161</v>
@@ -9932,7 +9932,7 @@
     <row r="333" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35712551211913102</v>
+        <v>0.43266001288396472</v>
       </c>
       <c r="B333" s="2">
         <v>383</v>
@@ -9956,7 +9956,7 @@
     <row r="334" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5575195525196659</v>
+        <v>8.6715523023565777E-2</v>
       </c>
       <c r="B334" s="2">
         <v>51</v>
@@ -9977,7 +9977,7 @@
     <row r="335" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84601934322750638</v>
+        <v>0.66213696718188508</v>
       </c>
       <c r="B335" s="2">
         <v>73</v>
@@ -9998,7 +9998,7 @@
     <row r="336" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35328348224363715</v>
+        <v>0.45887729553116441</v>
       </c>
       <c r="B336" s="2">
         <v>273</v>
@@ -10019,7 +10019,7 @@
     <row r="337" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1867410980939979E-2</v>
+        <v>0.82936165872818224</v>
       </c>
       <c r="B337" s="2">
         <v>361</v>
@@ -10043,7 +10043,7 @@
     <row r="338" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37826161699672967</v>
+        <v>0.96988968809120779</v>
       </c>
       <c r="B338" s="2">
         <v>129</v>
@@ -10067,7 +10067,7 @@
     <row r="339" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69118664281007847</v>
+        <v>0.21278241692091704</v>
       </c>
       <c r="B339" s="2">
         <v>376</v>
@@ -10094,7 +10094,7 @@
     <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5782327739997277E-2</v>
+        <v>0.81572884093426168</v>
       </c>
       <c r="B340" s="2">
         <v>225</v>
@@ -10115,7 +10115,7 @@
     <row r="341" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38809916565145652</v>
+        <v>1.2075953365002556E-2</v>
       </c>
       <c r="B341" s="2">
         <v>335</v>
@@ -10142,7 +10142,7 @@
     <row r="342" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92163245745897104</v>
+        <v>0.74331715572048884</v>
       </c>
       <c r="B342" s="2">
         <v>127</v>
@@ -10166,7 +10166,7 @@
     <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76918515496477158</v>
+        <v>0.47207062013218271</v>
       </c>
       <c r="B343" s="2">
         <v>285</v>
@@ -10193,7 +10193,7 @@
     <row r="344" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9631854525346466</v>
+        <v>0.49659551682316228</v>
       </c>
       <c r="B344" s="2">
         <v>362</v>
@@ -10217,7 +10217,7 @@
     <row r="345" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36127441663591997</v>
+        <v>0.75353068047911897</v>
       </c>
       <c r="B345" s="2">
         <v>226</v>
@@ -10244,7 +10244,7 @@
     <row r="346" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5126222266851953</v>
+        <v>0.45154598739301099</v>
       </c>
       <c r="B346" s="2">
         <v>96</v>
@@ -10265,7 +10265,7 @@
     <row r="347" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7122136835895545E-2</v>
+        <v>0.49076127978706585</v>
       </c>
       <c r="B347" s="2">
         <v>337</v>
@@ -10292,7 +10292,7 @@
     <row r="348" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79885774734735038</v>
+        <v>0.72628585689701741</v>
       </c>
       <c r="B348" s="2">
         <v>67</v>
@@ -10319,7 +10319,7 @@
     <row r="349" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6598207236457988</v>
+        <v>0.37634456595125798</v>
       </c>
       <c r="B349" s="2">
         <v>196</v>
@@ -10343,7 +10343,7 @@
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50121426487391685</v>
+        <v>3.9797818291945619E-2</v>
       </c>
       <c r="B350" s="2">
         <v>213</v>
@@ -10367,7 +10367,7 @@
     <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19164489832804465</v>
+        <v>0.301923372729622</v>
       </c>
       <c r="B351" s="2">
         <v>155</v>
@@ -10391,7 +10391,7 @@
     <row r="352" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95257935181721076</v>
+        <v>0.63741675324432512</v>
       </c>
       <c r="B352" s="2">
         <v>151</v>
@@ -10418,7 +10418,7 @@
     <row r="353" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69485749943243746</v>
+        <v>0.14736967491297059</v>
       </c>
       <c r="B353" s="2">
         <v>347</v>
@@ -10442,7 +10442,7 @@
     <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95260118069163191</v>
+        <v>9.9451875684459901E-2</v>
       </c>
       <c r="B354" s="2">
         <v>307</v>
@@ -10466,7 +10466,7 @@
     <row r="355" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36384262909948661</v>
+        <v>0.58202566946438183</v>
       </c>
       <c r="B355" s="2">
         <v>191</v>
@@ -10493,7 +10493,7 @@
     <row r="356" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88577631451081673</v>
+        <v>0.62033451818972984</v>
       </c>
       <c r="B356" s="2">
         <v>238</v>
@@ -10517,7 +10517,7 @@
     <row r="357" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12339051023534997</v>
+        <v>0.1107835405791906</v>
       </c>
       <c r="B357" s="2">
         <v>19</v>
@@ -10541,7 +10541,7 @@
     <row r="358" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49934735244179951</v>
+        <v>0.11056051014540147</v>
       </c>
       <c r="B358" s="2">
         <v>45</v>
@@ -10565,7 +10565,7 @@
     <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66964300302561763</v>
+        <v>7.3569763276361222E-2</v>
       </c>
       <c r="B359" s="2">
         <v>364</v>
@@ -10586,7 +10586,7 @@
     <row r="360" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69234980572746907</v>
+        <v>0.61399530696823568</v>
       </c>
       <c r="B360" s="2">
         <v>81</v>
@@ -10610,7 +10610,7 @@
     <row r="361" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11282589476531524</v>
+        <v>0.79569322518976981</v>
       </c>
       <c r="B361" s="2">
         <v>32</v>
@@ -10634,7 +10634,7 @@
     <row r="362" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3635467931660592</v>
+        <v>0.99502976418592248</v>
       </c>
       <c r="B362" s="2">
         <v>85</v>
@@ -10658,7 +10658,7 @@
     <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6358274049003723E-2</v>
+        <v>0.91605327024080896</v>
       </c>
       <c r="B363" s="2">
         <v>371</v>
@@ -10682,7 +10682,7 @@
     <row r="364" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96775393026926926</v>
+        <v>0.7564680415166678</v>
       </c>
       <c r="B364" s="2">
         <v>98</v>
@@ -10706,7 +10706,7 @@
     <row r="365" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69734960343329455</v>
+        <v>0.86581559907167671</v>
       </c>
       <c r="B365" s="2">
         <v>93</v>
@@ -10730,7 +10730,7 @@
     <row r="366" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46908515830134001</v>
+        <v>0.54545046022889088</v>
       </c>
       <c r="B366" s="2">
         <v>246</v>
@@ -10754,7 +10754,7 @@
     <row r="367" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17458790971000704</v>
+        <v>0.10038615211103497</v>
       </c>
       <c r="B367" s="2">
         <v>201</v>
@@ -10952,7 +10952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+    <sheetView topLeftCell="A189" workbookViewId="0">
       <selection activeCell="C370" sqref="C370"/>
     </sheetView>
   </sheetViews>
